--- a/Week-2/Menu/Menu.xlsx
+++ b/Week-2/Menu/Menu.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Dish Name</x:t>
   </x:si>
@@ -67,6 +67,9 @@
   </x:si>
   <x:si>
     <x:t>Apples</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Water</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -542,6 +545,20 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Week-2/Menu/Menu.xlsx
+++ b/Week-2/Menu/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Dylan-Cummins-Code\Week-2\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70902E-5ED2-4DCD-AECE-D6D4AB2E1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2B0A6-1798-4DBC-A6A9-1C26DC68B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{57B8B18B-858E-4E03-9C23-31A257AC2B18}"/>
   </x:bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Dish Name</x:t>
   </x:si>
@@ -60,16 +60,7 @@
     <x:t>Lobster</x:t>
   </x:si>
   <x:si>
-    <x:t>Bottle of Wine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apples</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Water</x:t>
+    <x:t>Shrimp and Grits</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -436,7 +427,7 @@
   <x:dimension ref="A1:D4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A5" sqref="A5"/>
+      <x:selection activeCell="D5" sqref="D5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,55 +499,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>16.99</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="n">
-        <x:v>24.99</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="n">
-        <x:v>1.99</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="b">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
